--- a/device/database/iob_dist_population_calculation.xlsx
+++ b/device/database/iob_dist_population_calculation.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26820" windowHeight="11550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26820" windowHeight="11550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>squared</t>
   </si>
@@ -36,6 +37,9 @@
   </si>
   <si>
     <t>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (0, 100);</t>
+  </si>
+  <si>
+    <t>from medtronic</t>
   </si>
 </sst>
 </file>
@@ -71,9 +75,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,7 +111,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -426,11 +430,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="273268112"/>
-        <c:axId val="273267552"/>
+        <c:axId val="312073680"/>
+        <c:axId val="312074240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="273268112"/>
+        <c:axId val="312073680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,7 +477,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273267552"/>
+        <c:crossAx val="312074240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -481,7 +485,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="273267552"/>
+        <c:axId val="312074240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -532,7 +536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="273268112"/>
+        <c:crossAx val="312073680"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -546,7 +550,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1469,7 +1472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
@@ -1534,27 +1537,27 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B45" si="0">A3*5</f>
+        <f t="shared" ref="B3:B41" si="0">A3*5</f>
         <v>10</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C45" si="1">A3*5/60</f>
+        <f t="shared" ref="C3:C41" si="1">A3*5/60</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D45" si="2">C3*C3</f>
+        <f t="shared" ref="D3:D41" si="2">C3*C3</f>
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E45" si="3">11-D3</f>
+        <f t="shared" ref="E3:E41" si="3">11-D3</f>
         <v>10.972222222222221</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F45" si="4">E3*E3</f>
+        <f t="shared" ref="F3:F41" si="4">E3*E3</f>
         <v>120.38966049382714</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G45" si="5">IF(F3&gt;100,100,F3)</f>
+        <f t="shared" ref="G3:G41" si="5">IF(F3&gt;100,100,F3)</f>
         <v>100</v>
       </c>
       <c r="H3" t="str">
@@ -2820,4 +2823,430 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3">
+        <f>B2+5</f>
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4">
+        <f t="shared" ref="B4:B61" si="0">B3+5</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>4.8611111111111112E-2</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>9.0277777777777776E-2</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>0.13194444444444445</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>275</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>295</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/device/database/iob_dist_population_calculation.xlsx
+++ b/device/database/iob_dist_population_calculation.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="iob_cosine" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>squared</t>
   </si>
@@ -40,6 +41,9 @@
   </si>
   <si>
     <t>from medtronic</t>
+  </si>
+  <si>
+    <t>f(x) = cos(x/1.3) +1</t>
   </si>
 </sst>
 </file>
@@ -430,11 +434,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="312073680"/>
-        <c:axId val="312074240"/>
+        <c:axId val="4071824"/>
+        <c:axId val="4072384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="312073680"/>
+        <c:axId val="4071824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -477,7 +481,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312074240"/>
+        <c:crossAx val="4072384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -485,7 +489,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="312074240"/>
+        <c:axId val="4072384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -536,7 +540,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="312073680"/>
+        <c:crossAx val="4071824"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -616,7 +620,620 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IOB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>iob_cosine!$C$2:$C$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.4166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.5833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>iob_cosine!$G$2:$G$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.856588351704147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.427176082851233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.714226502292263</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.721829421007243</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.455677691043789</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.923034548665399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.132691949043945</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.094920131508502</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88.821408704667206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86.325199589365766</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83.620612204152835</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.723161322423366</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77.649468072449565</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74.41716459084482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71.0447928764127</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.55169842460252</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63.957919252733774</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60.28407095259243</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.551228429790953</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52.780805008290343</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48.994429593596585</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45.213822599281215</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.460671348568809</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37.756505665746054</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.12257437105837</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.57972338757633</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.14827615926826</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.84791706625624</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.697578506040159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.715332288444426</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.918285967296608</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.322484703527786</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.9428192226533145</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.7929403946334403</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.8851809261226578</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.2304846143182084</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.838343568240298</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.716743757572059</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.87211920141653243</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.30931505976530271</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.1559839403255685E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="4074624"/>
+        <c:axId val="4075184"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="4074624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4075184"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="4075184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="4074624"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1172,6 +1789,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1191,6 +2324,43 @@
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -2827,9 +3997,1579 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>-10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f>A2*5</f>
+        <v>5</v>
+      </c>
+      <c r="C2" s="1">
+        <f>A2*5/60</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E2">
+        <f>COS((C2-0.5)/D2)+1</f>
+        <v>1.9291135538208759</v>
+      </c>
+      <c r="F2" s="1">
+        <f>E2*100/2</f>
+        <v>96.455677691043789</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2" t="str">
+        <f>CONCATENATE("insert into iob_dist (iob_dist.interval, iob_dist_pct) values (",B2,",",G2,");")</f>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (5,100);</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B49" si="0">A3*5</f>
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C49" si="1">A3*5/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E49" si="2">COS((C3-0.5)/D3)+1</f>
+        <v>1.9544365884201449</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F49" si="3">E3*100/2</f>
+        <v>97.721829421007243</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H49" si="4">CONCATENATE("insert into iob_dist (iob_dist.interval, iob_dist_pct) values (",B3,",",G3,");")</f>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (10,100);</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="D4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="2"/>
+        <v>1.9742845300458454</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="3"/>
+        <v>98.714226502292263</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (15,100);</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="2"/>
+        <v>1.9885435216570246</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="3"/>
+        <v>99.427176082851233</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (20,100);</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="2"/>
+        <v>1.9971317670340829</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="3"/>
+        <v>99.856588351704147</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (25,100);</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ref="G7:G49" si="5">IF(F7&gt;100,100,F7)</f>
+        <v>100</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (30,100);</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="2"/>
+        <v>1.9971317670340829</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="3"/>
+        <v>99.856588351704147</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="5"/>
+        <v>99.856588351704147</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (35,99.8565883517041);</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="2"/>
+        <v>1.9885435216570246</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="3"/>
+        <v>99.427176082851233</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="5"/>
+        <v>99.427176082851233</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (40,99.4271760828512);</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="D10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="2"/>
+        <v>1.9742845300458454</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="3"/>
+        <v>98.714226502292263</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="5"/>
+        <v>98.714226502292263</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (45,98.7142265022923);</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>1.9544365884201449</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="3"/>
+        <v>97.721829421007243</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>97.721829421007243</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (50,97.7218294210072);</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="D12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="2"/>
+        <v>1.9291135538208759</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="3"/>
+        <v>96.455677691043789</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>96.455677691043789</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (55,96.4556776910438);</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="2"/>
+        <v>1.8984606909733079</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>94.923034548665399</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="5"/>
+        <v>94.923034548665399</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (60,94.9230345486654);</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="D14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="2"/>
+        <v>1.8626538389808789</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>93.132691949043945</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="5"/>
+        <v>93.132691949043945</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (65,93.1326919490439);</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="D15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="2"/>
+        <v>1.8218984026301701</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>91.094920131508502</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="5"/>
+        <v>91.094920131508502</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (70,91.0949201315085);</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="D16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="2"/>
+        <v>1.7764281740933441</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>88.821408704667206</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="5"/>
+        <v>88.821408704667206</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (75,88.8214087046672);</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="D17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="2"/>
+        <v>1.7265039917873153</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>86.325199589365766</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="5"/>
+        <v>86.325199589365766</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (80,86.3251995893658);</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="D18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="2"/>
+        <v>1.6724122440830567</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>83.620612204152835</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="5"/>
+        <v>83.620612204152835</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (85,83.6206122041528);</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="D19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="2"/>
+        <v>1.6144632264484673</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>80.723161322423366</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="5"/>
+        <v>80.723161322423366</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (90,80.7231613224234);</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="D20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="2"/>
+        <v>1.5529893614489914</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>77.649468072449565</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="5"/>
+        <v>77.649468072449565</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (95,77.6494680724496);</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="D21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="2"/>
+        <v>1.4883432918168964</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="3"/>
+        <v>74.41716459084482</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="5"/>
+        <v>74.41716459084482</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (100,74.4171645908448);</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="D22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="2"/>
+        <v>1.420895857528254</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="3"/>
+        <v>71.0447928764127</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="5"/>
+        <v>71.0447928764127</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (105,71.0447928764127);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="D23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="2"/>
+        <v>1.3510339684920505</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="3"/>
+        <v>67.55169842460252</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="5"/>
+        <v>67.55169842460252</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (110,67.5516984246025);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="D24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="2"/>
+        <v>1.2791583850546755</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="3"/>
+        <v>63.957919252733774</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="5"/>
+        <v>63.957919252733774</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (115,63.9579192527338);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>1.2056814190518486</v>
+      </c>
+      <c r="F25" s="1">
+        <f t="shared" si="3"/>
+        <v>60.28407095259243</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="5"/>
+        <v>60.28407095259243</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (120,60.2840709525924);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="D26">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>1.1310245685958191</v>
+      </c>
+      <c r="F26" s="1">
+        <f t="shared" si="3"/>
+        <v>56.551228429790953</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="5"/>
+        <v>56.551228429790953</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (125,56.551228429791);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="D27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>1.0556161001658069</v>
+      </c>
+      <c r="F27" s="1">
+        <f t="shared" si="3"/>
+        <v>52.780805008290343</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="5"/>
+        <v>52.780805008290343</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (130,52.7808050082903);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="D28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>0.97988859187193167</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="3"/>
+        <v>48.994429593596585</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="5"/>
+        <v>48.994429593596585</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (135,48.9944295935966);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="D29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>0.90427645198562434</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="3"/>
+        <v>45.213822599281215</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="5"/>
+        <v>45.213822599281215</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (140,45.2138225992812);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4166666666666665</v>
+      </c>
+      <c r="D30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>0.82921342697137623</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="3"/>
+        <v>41.460671348568809</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="5"/>
+        <v>41.460671348568809</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (145,41.4606713485688);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="D31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>0.75513011331492108</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="3"/>
+        <v>37.756505665746054</v>
+      </c>
+      <c r="G31">
+        <f t="shared" si="5"/>
+        <v>37.756505665746054</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (150,37.7565056657461);</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="D32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>0.68245148742116735</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="3"/>
+        <v>34.12257437105837</v>
+      </c>
+      <c r="G32">
+        <f t="shared" si="5"/>
+        <v>34.12257437105837</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (155,34.1225743710584);</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="D33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>0.61159446775152659</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="3"/>
+        <v>30.57972338757633</v>
+      </c>
+      <c r="G33">
+        <f t="shared" si="5"/>
+        <v>30.57972338757633</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (160,30.5797233875763);</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+      <c r="D34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="2"/>
+        <v>0.54296552318536517</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="3"/>
+        <v>27.14827615926826</v>
+      </c>
+      <c r="G34">
+        <f t="shared" si="5"/>
+        <v>27.14827615926826</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (165,27.1482761592683);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="D35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="2"/>
+        <v>0.47695834132512482</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="3"/>
+        <v>23.84791706625624</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="5"/>
+        <v>23.84791706625624</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (170,23.8479170662562);</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="D36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="2"/>
+        <v>0.41395157012080319</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="3"/>
+        <v>20.697578506040159</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="5"/>
+        <v>20.697578506040159</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (175,20.6975785060402);</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="2"/>
+        <v>0.35430664576888848</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="3"/>
+        <v>17.715332288444426</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="5"/>
+        <v>17.715332288444426</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (180,17.7153322884444);</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="D38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="2"/>
+        <v>0.29836571934593215</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="3"/>
+        <v>14.918285967296608</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="5"/>
+        <v>14.918285967296608</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (185,14.9182859672966);</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="D39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="2"/>
+        <v>0.24644969407055572</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="3"/>
+        <v>12.322484703527786</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="5"/>
+        <v>12.322484703527786</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (190,12.3224847035278);</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+      <c r="D40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>0.1988563844530663</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="3"/>
+        <v>9.9428192226533145</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="5"/>
+        <v>9.9428192226533145</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (195,9.94281922265331);</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="D41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>0.15585880789266882</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="3"/>
+        <v>7.7929403946334403</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="5"/>
+        <v>7.7929403946334403</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (200,7.79294039463344);</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="D42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>0.11770361852245315</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8851809261226578</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="5"/>
+        <v>5.8851809261226578</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (205,5.88518092612266);</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="D43">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>8.4609692286364169E-2</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2304846143182084</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="5"/>
+        <v>4.2304846143182084</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (210,4.23048461431821);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="D44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>5.676687136480596E-2</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="3"/>
+        <v>2.838343568240298</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="5"/>
+        <v>2.838343568240298</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (215,2.8383435682403);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="D45">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>3.433487515144118E-2</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="3"/>
+        <v>1.716743757572059</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>1.716743757572059</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (220,1.71674375757206);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="D46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>1.7442384028330649E-2</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87211920141653243</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="5"/>
+        <v>0.87211920141653243</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (225,0.872119201416532);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="D47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>6.1863011953060543E-3</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="3"/>
+        <v>0.30931505976530271</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="5"/>
+        <v>0.30931505976530271</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (230,0.309315059765303);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="D48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>6.311967880651137E-4</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1559839403255685E-2</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="5"/>
+        <v>3.1559839403255685E-2</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (235,0.0315598394032557);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>8.0893747378740777E-4</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="3"/>
+        <v>4.0446873689370388E-2</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (240,0);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/device/database/iob_dist_population_calculation.xlsx
+++ b/device/database/iob_dist_population_calculation.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26820" windowHeight="11550" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="26820" windowHeight="11550" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="iob_cosine" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="iob_cosine_bolus" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="iob_cosine_square" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="11">
   <si>
     <t>squared</t>
   </si>
@@ -44,6 +45,21 @@
   </si>
   <si>
     <t>f(x) = cos(x/1.3) +1</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>bolus</t>
+  </si>
+  <si>
+    <t>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (0, 100, 'bolus');</t>
+  </si>
+  <si>
+    <t>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (0, 100, 'square');</t>
+  </si>
+  <si>
+    <t>square</t>
   </si>
 </sst>
 </file>
@@ -79,10 +95,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -115,6 +132,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -170,10 +188,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$41</c:f>
+              <c:f>iob_cosine_bolus!$D$2:$D$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -293,16 +311,40 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.4166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.5833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$40</c:f>
+              <c:f>iob_cosine_bolus!$H$2:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
+                <c:ptCount val="48"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -322,103 +364,130 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>100</c:v>
+                  <c:v>99.826489335027986</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>100</c:v>
+                  <c:v>99.30716157814625</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>100</c:v>
+                  <c:v>98.445621085532224</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>97.247847315736877</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>100</c:v>
+                  <c:v>95.722153329691523</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>100</c:v>
+                  <c:v>93.879128094518634</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>96.557918595679027</c:v>
+                  <c:v>91.731562991582848</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>92.908179012345684</c:v>
+                  <c:v>89.294363038847393</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>89.06640625</c:v>
+                  <c:v>86.584443443691043</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>85.049382716049365</c:v>
+                  <c:v>83.620612204152849</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>80.875048225308632</c:v>
+                  <c:v>80.423439573402248</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>76.5625</c:v>
+                  <c:v>77.015115293406993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72.131992669753089</c:v>
+                  <c:v>73.419294588657522</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>67.604938271604922</c:v>
+                  <c:v>69.660933988817888</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63.00390625</c:v>
+                  <c:v>65.766118119763433</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>58.352623456790127</c:v>
+                  <c:v>61.761878665149474</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53.675974151234563</c:v>
+                  <c:v>57.676006754995079</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49</c:v>
+                  <c:v>53.536860083385143</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>44.351900077160487</c:v>
+                  <c:v>49.373166093975954</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>39.760030864197539</c:v>
+                  <c:v>45.213822599281229</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>35.25390625</c:v>
+                  <c:v>41.087697217525395</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>30.864197530864185</c:v>
+                  <c:v>37.023427019058332</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>26.622733410493836</c:v>
+                  <c:v>33.049219772870543</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>22.5625</c:v>
+                  <c:v>29.192658172642883</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>18.717640817901231</c:v>
+                  <c:v>25.480508401085821</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>15.123456790123459</c:v>
+                  <c:v>21.93853436121293</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11.81640625</c:v>
+                  <c:v>18.591318863863044</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>8.8341049382716008</c:v>
+                  <c:v>15.462093012506179</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>6.2153260030864272</c:v>
+                  <c:v>12.572574969475014</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>4</c:v>
+                  <c:v>9.9428192226533145</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2.2292148919753081</c:v>
+                  <c:v>7.5910773987749032</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.94521604938271797</c:v>
+                  <c:v>5.5336715893479322</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.19140625</c:v>
+                  <c:v>3.7848810683768219</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.3568431881092033</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.2594691406335012</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.50037516997772924</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.4829712126871515E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.5716829829653944E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -434,11 +503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="4071824"/>
-        <c:axId val="4072384"/>
+        <c:axId val="193703168"/>
+        <c:axId val="193712688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4071824"/>
+        <c:axId val="193703168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -481,7 +550,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4072384"/>
+        <c:crossAx val="193712688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -489,7 +558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4072384"/>
+        <c:axId val="193712688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,7 +609,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4071824"/>
+        <c:crossAx val="193703168"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -554,6 +623,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -691,10 +761,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>iob_cosine!$C$2:$C$49</c:f>
+              <c:f>Sheet1!$C$2:$C$41</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="40"/>
                 <c:pt idx="0">
                   <c:v>8.3333333333333329E-2</c:v>
                 </c:pt>
@@ -814,40 +884,16 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>3.3333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>3.4166666666666665</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>3.5833333333333335</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>3.6666666666666665</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>3.75</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>3.8333333333333335</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.9166666666666665</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>iob_cosine!$G$2:$G$49</c:f>
+              <c:f>Sheet1!$G$2:$G$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="48"/>
+                <c:ptCount val="39"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -867,130 +913,103 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>99.856588351704147</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>99.427176082851233</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>98.714226502292263</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97.721829421007243</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>96.455677691043789</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>94.923034548665399</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>93.132691949043945</c:v>
+                  <c:v>96.557918595679027</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>91.094920131508502</c:v>
+                  <c:v>92.908179012345684</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>88.821408704667206</c:v>
+                  <c:v>89.06640625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>86.325199589365766</c:v>
+                  <c:v>85.049382716049365</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83.620612204152835</c:v>
+                  <c:v>80.875048225308632</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>80.723161322423366</c:v>
+                  <c:v>76.5625</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>77.649468072449565</c:v>
+                  <c:v>72.131992669753089</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74.41716459084482</c:v>
+                  <c:v>67.604938271604922</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>71.0447928764127</c:v>
+                  <c:v>63.00390625</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>67.55169842460252</c:v>
+                  <c:v>58.352623456790127</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>63.957919252733774</c:v>
+                  <c:v>53.675974151234563</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>60.28407095259243</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>56.551228429790953</c:v>
+                  <c:v>44.351900077160487</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52.780805008290343</c:v>
+                  <c:v>39.760030864197539</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>48.994429593596585</c:v>
+                  <c:v>35.25390625</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>45.213822599281215</c:v>
+                  <c:v>30.864197530864185</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>41.460671348568809</c:v>
+                  <c:v>26.622733410493836</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>37.756505665746054</c:v>
+                  <c:v>22.5625</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>34.12257437105837</c:v>
+                  <c:v>18.717640817901231</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>30.57972338757633</c:v>
+                  <c:v>15.123456790123459</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>27.14827615926826</c:v>
+                  <c:v>11.81640625</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>23.84791706625624</c:v>
+                  <c:v>8.8341049382716008</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>20.697578506040159</c:v>
+                  <c:v>6.2153260030864272</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>17.715332288444426</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>14.918285967296608</c:v>
+                  <c:v>2.2292148919753081</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>12.322484703527786</c:v>
+                  <c:v>0.94521604938271797</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>9.9428192226533145</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>7.7929403946334403</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.8851809261226578</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.2304846143182084</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>2.838343568240298</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.716743757572059</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.87211920141653243</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.30931505976530271</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.1559839403255685E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>0.19140625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,11 +1025,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="4074624"/>
-        <c:axId val="4075184"/>
+        <c:axId val="252678192"/>
+        <c:axId val="252678752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="4074624"/>
+        <c:axId val="252678192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1053,7 +1072,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4075184"/>
+        <c:crossAx val="252678752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1061,7 +1080,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="4075184"/>
+        <c:axId val="252678752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1112,7 +1131,580 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="4074624"/>
+        <c:crossAx val="252678192"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>IOB</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>iob_cosine_square!$D$2:$D$49</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16666666666666666</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.41666666666666669</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.58333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.4166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5833333333333333</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.8333333333333333</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.9166666666666667</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.0833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.4166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.5833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>2.9166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.0833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.1666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.25</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>3.3333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>3.4166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>3.5833333333333335</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3.75</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>3.8333333333333335</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.9166666666666665</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>iob_cosine_square!$H$2:$H$49</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="48"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.856588351704147</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.427176082851233</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.714226502292263</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>97.721829421007243</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>96.455677691043789</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>94.923034548665399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>93.132691949043945</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>91.094920131508502</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>88.821408704667206</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>86.325199589365766</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>83.620612204152835</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>80.723161322423366</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>77.649468072449565</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>74.41716459084482</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>71.0447928764127</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>67.55169842460252</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>63.957919252733774</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60.28407095259243</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.551228429790953</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52.780805008290343</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>48.994429593596585</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45.213822599281215</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.460671348568809</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37.756505665746054</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.12257437105837</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>30.57972338757633</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>27.14827615926826</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>23.84791706625624</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.697578506040159</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.715332288444426</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.918285967296608</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.322484703527786</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.9428192226533145</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>7.7929403946334403</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.8851809261226578</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.2304846143182084</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.838343568240298</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.716743757572059</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.87211920141653243</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.30931505976530271</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.1559839403255685E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="252680992"/>
+        <c:axId val="252681552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="252680992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="252681552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="252681552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="252680992"/>
         <c:crossesAt val="1"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1234,6 +1826,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -2305,7 +2937,560 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2340,17 +3525,17 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>70</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
@@ -2640,9 +3825,1723 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I45" sqref="I1:I45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>-10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>B2*5</f>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2*5/60</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>COS((D2-0.5)/E2)+1</f>
+        <v>1.9144430665938303</v>
+      </c>
+      <c r="G2" s="1">
+        <f>F2*100/2</f>
+        <v>95.722153329691523</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2" t="str">
+        <f>CONCATENATE("insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (",C2,",",H2,",'",A2,"');")</f>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (5,100,'bolus');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C49" si="0">B3*5</f>
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D49" si="1">B3*5/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F49" si="2">COS((D3-0.5)/E3)+1</f>
+        <v>1.9449569463147376</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G49" si="3">F3*100/2</f>
+        <v>97.247847315736877</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I49" si="4">CONCATENATE("insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (",C3,",",H3,",'",A3,"');")</f>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (10,100,'bolus');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>1.9689124217106446</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="3"/>
+        <v>98.445621085532224</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (15,100,'bolus');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>1.986143231562925</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="3"/>
+        <v>99.30716157814625</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (20,100,'bolus');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1.9965297867005596</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
+        <v>99.826489335027986</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (25,100,'bolus');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H45" si="5">IF(G7&gt;100,100,G7)</f>
+        <v>100</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (30,100,'bolus');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1.9965297867005596</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>99.826489335027986</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>99.826489335027986</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (35,99.826489335028,'bolus');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1.986143231562925</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>99.30716157814625</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>99.30716157814625</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (40,99.3071615781462,'bolus');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.9689124217106446</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>98.445621085532224</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>98.445621085532224</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (45,98.4456210855322,'bolus');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1.9449569463147376</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>97.247847315736877</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>97.247847315736877</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (50,97.2478473157369,'bolus');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1.9144430665938303</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>95.722153329691523</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>95.722153329691523</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (55,95.7221533296915,'bolus');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1.8775825618903728</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>93.879128094518634</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>93.879128094518634</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (60,93.8791280945186,'bolus');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1.834631259831657</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="3"/>
+        <v>91.731562991582848</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>91.731562991582848</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (65,91.7315629915828,'bolus');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1.7858872607769478</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="3"/>
+        <v>89.294363038847393</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>89.294363038847393</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (70,89.2943630388474,'bolus');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1.731688868873821</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="3"/>
+        <v>86.584443443691043</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>86.584443443691043</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (75,86.584443443691,'bolus');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1.6724122440830569</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="3"/>
+        <v>83.620612204152849</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>83.620612204152849</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (80,83.6206122041528,'bolus');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1.6084687914680451</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>80.423439573402248</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>80.423439573402248</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (85,80.4234395734022,'bolus');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1.5403023058681398</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>77.015115293406993</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>77.015115293406993</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (90,77.015115293407,'bolus');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>1.4683858917731505</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
+        <v>73.419294588657522</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>73.419294588657522</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (95,73.4192945886575,'bolus');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1.3932186797763577</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="3"/>
+        <v>69.660933988817888</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>69.660933988817888</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (100,69.6609339888179,'bolus');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>1.3153223623952686</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="3"/>
+        <v>65.766118119763433</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>65.766118119763433</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (105,65.7661181197634,'bolus');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>1.2352375733029894</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="3"/>
+        <v>61.761878665149474</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>61.761878665149474</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (110,61.7618786651495,'bolus');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>1.1535201350999016</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="3"/>
+        <v>57.676006754995079</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>57.676006754995079</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (115,57.6760067549951,'bolus');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>1.0707372016677028</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>53.536860083385143</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>53.536860083385143</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (120,53.5368600833851,'bolus');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>0.98746332187951902</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="3"/>
+        <v>49.373166093975954</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>49.373166093975954</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (125,49.373166093976,'bolus');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>0.90427645198562456</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="3"/>
+        <v>45.213822599281229</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>45.213822599281229</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (130,45.2138225992812,'bolus');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0.82175394435050797</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="3"/>
+        <v>41.087697217525395</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>41.087697217525395</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (135,41.0876972175254,'bolus');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0.74046854038116661</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="3"/>
+        <v>37.023427019058332</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>37.023427019058332</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (140,37.0234270190583,'bolus');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4166666666666665</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>0.66098439545741083</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="3"/>
+        <v>33.049219772870543</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>33.049219772870543</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (145,33.0492197728705,'bolus');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>0.58385316345285765</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="3"/>
+        <v>29.192658172642883</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="5"/>
+        <v>29.192658172642883</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (150,29.1926581726429,'bolus');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>0.50961016802171644</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="3"/>
+        <v>25.480508401085821</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>25.480508401085821</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (155,25.4805084010858,'bolus');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>0.4387706872242586</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="3"/>
+        <v>21.93853436121293</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>21.93853436121293</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (160,21.9385343612129,'bolus');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0.37182637727726087</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="3"/>
+        <v>18.591318863863044</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>18.591318863863044</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (165,18.591318863863,'bolus');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0.30924186025012357</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="3"/>
+        <v>15.462093012506179</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>15.462093012506179</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (170,15.4620930125062,'bolus');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.25145149938950029</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="3"/>
+        <v>12.572574969475014</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>12.572574969475014</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (175,12.572574969475,'bolus');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>0.1988563844530663</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="3"/>
+        <v>9.9428192226533145</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>9.9428192226533145</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (180,9.94281922265331,'bolus');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0.15182154797549807</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="3"/>
+        <v>7.5910773987749032</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>7.5910773987749032</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (185,7.5910773987749,'bolus');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0.11067343178695865</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5336715893479322</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>5.5336715893479322</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (190,5.53367158934793,'bolus');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>7.5697621367536438E-2</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="3"/>
+        <v>3.7848810683768219</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>3.7848810683768219</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (195,3.78488106837682,'bolus');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>4.7136863762184067E-2</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="3"/>
+        <v>2.3568431881092033</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>2.3568431881092033</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (200,2.3568431881092,'bolus');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>2.5189382812670025E-2</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2594691406335012</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>1.2594691406335012</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (205,1.2594691406335,'bolus');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>1.0007503399554585E-2</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="3"/>
+        <v>0.50037516997772924</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>0.50037516997772924</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (210,0.500375169977729,'bolus');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>1.6965942425374303E-3</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="3"/>
+        <v>8.4829712126871515E-2</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>8.4829712126871515E-2</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (215,0.0848297121268715,'bolus');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>3.1433659659307889E-4</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="3"/>
+        <v>1.5716829829653944E-2</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>1.5716829829653944E-2</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (220,0.0157168298296539,'bolus');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>5.870323919453746E-3</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="3"/>
+        <v>0.2935161959726873</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (225,0,'bolus');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>1.8325995288920982E-2</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="3"/>
+        <v>0.9162997644460491</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (230,0,'bolus');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>3.759490303211499E-2</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="3"/>
+        <v>1.8797451516057495</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (235,0,'bolus');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
+        <v>6.3543312709203659E-2</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1771656354601827</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (240,0,'bolus');</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="V48" sqref="V48"/>
     </sheetView>
   </sheetViews>
@@ -3995,1568 +6894,1715 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I48" sqref="I1:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>0</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>-10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>B2*5</f>
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2*5/60</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F2">
+        <f>COS((D2-0.5)/E2)+1</f>
+        <v>1.9291135538208759</v>
+      </c>
+      <c r="G2" s="1">
+        <f>F2*100/2</f>
+        <v>96.455677691043789</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2" t="str">
+        <f>CONCATENATE("insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (",C2,",",H2,",'",A2,"');")</f>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (5,100,'square');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C49" si="0">B3*5</f>
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D49" si="1">B3*5/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F49" si="2">COS((D3-0.5)/E3)+1</f>
+        <v>1.9544365884201449</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G49" si="3">F3*100/2</f>
+        <v>97.721829421007243</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I49" si="4">CONCATENATE("insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (",C3,",",H3,",'",A3,"');")</f>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (10,100,'square');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="1"/>
+        <v>0.25</v>
+      </c>
+      <c r="E4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="2"/>
+        <v>1.9742845300458454</v>
+      </c>
+      <c r="G4" s="1">
+        <f t="shared" si="3"/>
+        <v>98.714226502292263</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (15,100,'square');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="1"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>1.9885435216570246</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="3"/>
+        <v>99.427176082851233</v>
+      </c>
+      <c r="H5">
+        <v>100</v>
+      </c>
+      <c r="I5" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (20,100,'square');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="2"/>
+        <v>1.9971317670340829</v>
+      </c>
+      <c r="G6" s="1">
+        <f t="shared" si="3"/>
+        <v>99.856588351704147</v>
+      </c>
+      <c r="H6">
+        <v>100</v>
+      </c>
+      <c r="I6" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (25,100,'square');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ref="H7:H48" si="5">IF(G7&gt;100,100,G7)</f>
+        <v>100</v>
+      </c>
+      <c r="I7" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (30,100,'square');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="2"/>
+        <v>1.9971317670340829</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="3"/>
+        <v>99.856588351704147</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="5"/>
+        <v>99.856588351704147</v>
+      </c>
+      <c r="I8" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (35,99.8565883517041,'square');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>1.9885435216570246</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="3"/>
+        <v>99.427176082851233</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="5"/>
+        <v>99.427176082851233</v>
+      </c>
+      <c r="I9" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (40,99.4271760828512,'square');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+      <c r="E10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="2"/>
+        <v>1.9742845300458454</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>98.714226502292263</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="5"/>
+        <v>98.714226502292263</v>
+      </c>
+      <c r="I10" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (45,98.7142265022923,'square');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="2"/>
+        <v>1.9544365884201449</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>97.721829421007243</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="5"/>
+        <v>97.721829421007243</v>
+      </c>
+      <c r="I11" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (50,97.7218294210072,'square');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="2"/>
+        <v>1.9291135538208759</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>96.455677691043789</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>96.455677691043789</v>
+      </c>
+      <c r="I12" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (55,96.4556776910438,'square');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="B2">
-        <f>A2*5</f>
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <f>A2*5/60</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="D2">
+      <c r="E13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E2">
-        <f>COS((C2-0.5)/D2)+1</f>
-        <v>1.9291135538208759</v>
-      </c>
-      <c r="F2" s="1">
-        <f>E2*100/2</f>
-        <v>96.455677691043789</v>
-      </c>
-      <c r="G2">
+      <c r="F13">
+        <f t="shared" si="2"/>
+        <v>1.8984606909733079</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>94.923034548665399</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="5"/>
+        <v>94.923034548665399</v>
+      </c>
+      <c r="I13" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (60,94.9230345486654,'square');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="E14">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="2"/>
+        <v>1.8626538389808789</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" si="3"/>
+        <v>93.132691949043945</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="5"/>
+        <v>93.132691949043945</v>
+      </c>
+      <c r="I14" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (65,93.1326919490439,'square');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="E15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="2"/>
+        <v>1.8218984026301701</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="3"/>
+        <v>91.094920131508502</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="5"/>
+        <v>91.094920131508502</v>
+      </c>
+      <c r="I15" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (70,91.0949201315085,'square');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.25</v>
+      </c>
+      <c r="E16">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="2"/>
+        <v>1.7764281740933441</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="3"/>
+        <v>88.821408704667206</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="5"/>
+        <v>88.821408704667206</v>
+      </c>
+      <c r="I16" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (75,88.8214087046672,'square');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="E17">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="2"/>
+        <v>1.7265039917873153</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="3"/>
+        <v>86.325199589365766</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="5"/>
+        <v>86.325199589365766</v>
+      </c>
+      <c r="I17" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (80,86.3251995893658,'square');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>85</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="E18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="2"/>
+        <v>1.6724122440830567</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>83.620612204152835</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="5"/>
+        <v>83.620612204152835</v>
+      </c>
+      <c r="I18" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (85,83.6206122041528,'square');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="E19">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="2"/>
+        <v>1.6144632264484673</v>
+      </c>
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>80.723161322423366</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="5"/>
+        <v>80.723161322423366</v>
+      </c>
+      <c r="I19" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (90,80.7231613224234,'square');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>95</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5833333333333333</v>
+      </c>
+      <c r="E20">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="2"/>
+        <v>1.5529893614489914</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
+        <v>77.649468072449565</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="5"/>
+        <v>77.649468072449565</v>
+      </c>
+      <c r="I20" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (95,77.6494680724496,'square');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H2" t="str">
-        <f>CONCATENATE("insert into iob_dist (iob_dist.interval, iob_dist_pct) values (",B2,",",G2,");")</f>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (5,100);</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="D21" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="E21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="2"/>
+        <v>1.4883432918168964</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="3"/>
+        <v>74.41716459084482</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="5"/>
+        <v>74.41716459084482</v>
+      </c>
+      <c r="I21" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (100,74.4171645908448,'square');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.75</v>
+      </c>
+      <c r="E22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="2"/>
+        <v>1.420895857528254</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="3"/>
+        <v>71.0447928764127</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="5"/>
+        <v>71.0447928764127</v>
+      </c>
+      <c r="I22" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (105,71.0447928764127,'square');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="E23">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="2"/>
+        <v>1.3510339684920505</v>
+      </c>
+      <c r="G23" s="1">
+        <f t="shared" si="3"/>
+        <v>67.55169842460252</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="5"/>
+        <v>67.55169842460252</v>
+      </c>
+      <c r="I23" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (110,67.5516984246025,'square');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>115</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="1"/>
+        <v>1.9166666666666667</v>
+      </c>
+      <c r="E24">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="2"/>
+        <v>1.2791583850546755</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="3"/>
+        <v>63.957919252733774</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="5"/>
+        <v>63.957919252733774</v>
+      </c>
+      <c r="I24" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (115,63.9579192527338,'square');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="B3">
-        <f t="shared" ref="B3:B49" si="0">A3*5</f>
+      <c r="E25">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="2"/>
+        <v>1.2056814190518486</v>
+      </c>
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>60.28407095259243</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="5"/>
+        <v>60.28407095259243</v>
+      </c>
+      <c r="I25" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (120,60.2840709525924,'square');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C49" si="1">A3*5/60</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="D3">
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="1"/>
+        <v>2.0833333333333335</v>
+      </c>
+      <c r="E26">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E49" si="2">COS((C3-0.5)/D3)+1</f>
-        <v>1.9544365884201449</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F49" si="3">E3*100/2</f>
-        <v>97.721829421007243</v>
-      </c>
-      <c r="G3">
-        <v>100</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" ref="H3:H49" si="4">CONCATENATE("insert into iob_dist (iob_dist.interval, iob_dist_pct) values (",B3,",",G3,");")</f>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (10,100);</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F26">
+        <f t="shared" si="2"/>
+        <v>1.1310245685958191</v>
+      </c>
+      <c r="G26" s="1">
+        <f t="shared" si="3"/>
+        <v>56.551228429790953</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="5"/>
+        <v>56.551228429790953</v>
+      </c>
+      <c r="I26" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (125,56.551228429791,'square');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1666666666666665</v>
+      </c>
+      <c r="E27">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>1.0556161001658069</v>
+      </c>
+      <c r="G27" s="1">
+        <f t="shared" si="3"/>
+        <v>52.780805008290343</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="5"/>
+        <v>52.780805008290343</v>
+      </c>
+      <c r="I27" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (130,52.7808050082903,'square');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="1"/>
+        <v>2.25</v>
+      </c>
+      <c r="E28">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>0.97988859187193167</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="3"/>
+        <v>48.994429593596585</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="5"/>
+        <v>48.994429593596585</v>
+      </c>
+      <c r="I28" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (135,48.9944295935966,'square');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="1"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="E29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>0.90427645198562434</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="3"/>
+        <v>45.213822599281215</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="5"/>
+        <v>45.213822599281215</v>
+      </c>
+      <c r="I29" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (140,45.2138225992812,'square');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>145</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="1"/>
+        <v>2.4166666666666665</v>
+      </c>
+      <c r="E30">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>0.82921342697137623</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="3"/>
+        <v>41.460671348568809</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="5"/>
+        <v>41.460671348568809</v>
+      </c>
+      <c r="I30" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (145,41.4606713485688,'square');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="E31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="2"/>
+        <v>0.75513011331492108</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="3"/>
+        <v>37.756505665746054</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="5"/>
+        <v>37.756505665746054</v>
+      </c>
+      <c r="I31" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (150,37.7565056657461,'square');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>2.5833333333333335</v>
+      </c>
+      <c r="E32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="2"/>
+        <v>0.68245148742116735</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="3"/>
+        <v>34.12257437105837</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="5"/>
+        <v>34.12257437105837</v>
+      </c>
+      <c r="I32" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (155,34.1225743710584,'square');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="1"/>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="E33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="2"/>
+        <v>0.61159446775152659</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="3"/>
+        <v>30.57972338757633</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="5"/>
+        <v>30.57972338757633</v>
+      </c>
+      <c r="I33" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (160,30.5797233875763,'square');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>165</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>2.75</v>
+      </c>
+      <c r="E34">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="2"/>
+        <v>0.54296552318536517</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="3"/>
+        <v>27.14827615926826</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="5"/>
+        <v>27.14827615926826</v>
+      </c>
+      <c r="I34" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (165,27.1482761592683,'square');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>170</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="1"/>
+        <v>2.8333333333333335</v>
+      </c>
+      <c r="E35">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="2"/>
+        <v>0.47695834132512482</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="3"/>
+        <v>23.84791706625624</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="5"/>
+        <v>23.84791706625624</v>
+      </c>
+      <c r="I35" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (170,23.8479170662562,'square');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="1"/>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="E36">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
+        <v>0.41395157012080319</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" si="3"/>
+        <v>20.697578506040159</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="5"/>
+        <v>20.697578506040159</v>
+      </c>
+      <c r="I36" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (175,20.6975785060402,'square');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="B4">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" si="1"/>
-        <v>0.25</v>
-      </c>
-      <c r="D4">
+      <c r="E37">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="2"/>
-        <v>1.9742845300458454</v>
-      </c>
-      <c r="F4" s="1">
-        <f t="shared" si="3"/>
-        <v>98.714226502292263</v>
-      </c>
-      <c r="G4">
-        <v>100</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (15,100);</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="F37">
+        <f t="shared" si="2"/>
+        <v>0.35430664576888848</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" si="3"/>
+        <v>17.715332288444426</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="5"/>
+        <v>17.715332288444426</v>
+      </c>
+      <c r="I37" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (180,17.7153322884444,'square');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>185</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>3.0833333333333335</v>
+      </c>
+      <c r="E38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
+        <v>0.29836571934593215</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="3"/>
+        <v>14.918285967296608</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="5"/>
+        <v>14.918285967296608</v>
+      </c>
+      <c r="I38" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (185,14.9182859672966,'square');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>190</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="1"/>
+        <v>3.1666666666666665</v>
+      </c>
+      <c r="E39">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
+        <v>0.24644969407055572</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="3"/>
+        <v>12.322484703527786</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="5"/>
+        <v>12.322484703527786</v>
+      </c>
+      <c r="I39" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (190,12.3224847035278,'square');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>195</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="1"/>
+        <v>3.25</v>
+      </c>
+      <c r="E40">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
+        <v>0.1988563844530663</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" si="3"/>
+        <v>9.9428192226533145</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="5"/>
+        <v>9.9428192226533145</v>
+      </c>
+      <c r="I40" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (195,9.94281922265331,'square');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E41">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
+        <v>0.15585880789266882</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="3"/>
+        <v>7.7929403946334403</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="5"/>
+        <v>7.7929403946334403</v>
+      </c>
+      <c r="I41" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (200,7.79294039463344,'square');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4166666666666665</v>
+      </c>
+      <c r="E42">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
+        <v>0.11770361852245315</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" si="3"/>
+        <v>5.8851809261226578</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="5"/>
+        <v>5.8851809261226578</v>
+      </c>
+      <c r="I42" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (205,5.88518092612266,'square');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>210</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
+      </c>
+      <c r="E43">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
+        <v>8.4609692286364169E-2</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2304846143182084</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="5"/>
+        <v>4.2304846143182084</v>
+      </c>
+      <c r="I43" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (210,4.23048461431821,'square');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>215</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="1"/>
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="E44">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
+        <v>5.676687136480596E-2</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" si="3"/>
+        <v>2.838343568240298</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="5"/>
+        <v>2.838343568240298</v>
+      </c>
+      <c r="I44" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (215,2.8383435682403,'square');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="1"/>
+        <v>3.6666666666666665</v>
+      </c>
+      <c r="E45">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
+        <v>3.433487515144118E-2</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" si="3"/>
+        <v>1.716743757572059</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>1.716743757572059</v>
+      </c>
+      <c r="I45" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (220,1.71674375757206,'square');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>225</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="1"/>
+        <v>3.75</v>
+      </c>
+      <c r="E46">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
+        <v>1.7442384028330649E-2</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87211920141653243</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="5"/>
+        <v>0.87211920141653243</v>
+      </c>
+      <c r="I46" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (225,0.872119201416532,'square');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="1"/>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="E47">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
+        <v>6.1863011953060543E-3</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="3"/>
+        <v>0.30931505976530271</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="5"/>
+        <v>0.30931505976530271</v>
+      </c>
+      <c r="I47" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (230,0.309315059765303,'square');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>235</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="1"/>
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="E48">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
+        <v>6.311967880651137E-4</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="3"/>
+        <v>3.1559839403255685E-2</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="5"/>
+        <v>3.1559839403255685E-2</v>
+      </c>
+      <c r="I48" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (235,0.0315598394032557,'square');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B5">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="1"/>
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="D5">
+      <c r="E49">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E5">
-        <f t="shared" si="2"/>
-        <v>1.9885435216570246</v>
-      </c>
-      <c r="F5" s="1">
-        <f t="shared" si="3"/>
-        <v>99.427176082851233</v>
-      </c>
-      <c r="G5">
-        <v>100</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (20,100);</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D6">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="2"/>
-        <v>1.9971317670340829</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" si="3"/>
-        <v>99.856588351704147</v>
-      </c>
-      <c r="G6">
-        <v>100</v>
-      </c>
-      <c r="H6" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (25,100);</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="D7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F7" s="1">
-        <f t="shared" si="3"/>
-        <v>100</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ref="G7:G49" si="5">IF(F7&gt;100,100,F7)</f>
-        <v>100</v>
-      </c>
-      <c r="H7" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (30,100);</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="1"/>
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="2"/>
-        <v>1.9971317670340829</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" si="3"/>
-        <v>99.856588351704147</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="5"/>
-        <v>99.856588351704147</v>
-      </c>
-      <c r="H8" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (35,99.8565883517041);</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D9">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="2"/>
-        <v>1.9885435216570246</v>
-      </c>
-      <c r="F9" s="1">
-        <f t="shared" si="3"/>
-        <v>99.427176082851233</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="5"/>
-        <v>99.427176082851233</v>
-      </c>
-      <c r="H9" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (40,99.4271760828512);</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="1"/>
-        <v>0.75</v>
-      </c>
-      <c r="D10">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>1.9742845300458454</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="3"/>
-        <v>98.714226502292263</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="5"/>
-        <v>98.714226502292263</v>
-      </c>
-      <c r="H10" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (45,98.7142265022923);</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="D11">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="2"/>
-        <v>1.9544365884201449</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="3"/>
-        <v>97.721829421007243</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="5"/>
-        <v>97.721829421007243</v>
-      </c>
-      <c r="H11" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (50,97.7218294210072);</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="0"/>
-        <v>55</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="1"/>
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="D12">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="2"/>
-        <v>1.9291135538208759</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="3"/>
-        <v>96.455677691043789</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="5"/>
-        <v>96.455677691043789</v>
-      </c>
-      <c r="H12" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (55,96.4556776910438);</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="2"/>
-        <v>1.8984606909733079</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="3"/>
-        <v>94.923034548665399</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="5"/>
-        <v>94.923034548665399</v>
-      </c>
-      <c r="H13" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (60,94.9230345486654);</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="1"/>
-        <v>1.0833333333333333</v>
-      </c>
-      <c r="D14">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>1.8626538389808789</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="3"/>
-        <v>93.132691949043945</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="5"/>
-        <v>93.132691949043945</v>
-      </c>
-      <c r="H14" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (65,93.1326919490439);</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="1"/>
-        <v>1.1666666666666667</v>
-      </c>
-      <c r="D15">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="2"/>
-        <v>1.8218984026301701</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="3"/>
-        <v>91.094920131508502</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="5"/>
-        <v>91.094920131508502</v>
-      </c>
-      <c r="H15" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (70,91.0949201315085);</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="1"/>
-        <v>1.25</v>
-      </c>
-      <c r="D16">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="2"/>
-        <v>1.7764281740933441</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="3"/>
-        <v>88.821408704667206</v>
-      </c>
-      <c r="G16">
-        <f t="shared" si="5"/>
-        <v>88.821408704667206</v>
-      </c>
-      <c r="H16" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (75,88.8214087046672);</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="1"/>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="D17">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="2"/>
-        <v>1.7265039917873153</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="3"/>
-        <v>86.325199589365766</v>
-      </c>
-      <c r="G17">
-        <f t="shared" si="5"/>
-        <v>86.325199589365766</v>
-      </c>
-      <c r="H17" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (80,86.3251995893658);</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4166666666666667</v>
-      </c>
-      <c r="D18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>1.6724122440830567</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="3"/>
-        <v>83.620612204152835</v>
-      </c>
-      <c r="G18">
-        <f t="shared" si="5"/>
-        <v>83.620612204152835</v>
-      </c>
-      <c r="H18" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (85,83.6206122041528);</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5</v>
-      </c>
-      <c r="D19">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="2"/>
-        <v>1.6144632264484673</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="3"/>
-        <v>80.723161322423366</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="5"/>
-        <v>80.723161322423366</v>
-      </c>
-      <c r="H19" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (90,80.7231613224234);</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="1"/>
-        <v>1.5833333333333333</v>
-      </c>
-      <c r="D20">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="2"/>
-        <v>1.5529893614489914</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="3"/>
-        <v>77.649468072449565</v>
-      </c>
-      <c r="G20">
-        <f t="shared" si="5"/>
-        <v>77.649468072449565</v>
-      </c>
-      <c r="H20" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (95,77.6494680724496);</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6666666666666667</v>
-      </c>
-      <c r="D21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="2"/>
-        <v>1.4883432918168964</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="3"/>
-        <v>74.41716459084482</v>
-      </c>
-      <c r="G21">
-        <f t="shared" si="5"/>
-        <v>74.41716459084482</v>
-      </c>
-      <c r="H21" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (100,74.4171645908448);</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="1"/>
-        <v>1.75</v>
-      </c>
-      <c r="D22">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>1.420895857528254</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="3"/>
-        <v>71.0447928764127</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="5"/>
-        <v>71.0447928764127</v>
-      </c>
-      <c r="H22" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (105,71.0447928764127);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23">
-        <f t="shared" si="0"/>
-        <v>110</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="1"/>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="D23">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="2"/>
-        <v>1.3510339684920505</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="3"/>
-        <v>67.55169842460252</v>
-      </c>
-      <c r="G23">
-        <f t="shared" si="5"/>
-        <v>67.55169842460252</v>
-      </c>
-      <c r="H23" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (110,67.5516984246025);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="1"/>
-        <v>1.9166666666666667</v>
-      </c>
-      <c r="D24">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="2"/>
-        <v>1.2791583850546755</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="3"/>
-        <v>63.957919252733774</v>
-      </c>
-      <c r="G24">
-        <f t="shared" si="5"/>
-        <v>63.957919252733774</v>
-      </c>
-      <c r="H24" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (115,63.9579192527338);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D25">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E25">
-        <f t="shared" si="2"/>
-        <v>1.2056814190518486</v>
-      </c>
-      <c r="F25" s="1">
-        <f t="shared" si="3"/>
-        <v>60.28407095259243</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="5"/>
-        <v>60.28407095259243</v>
-      </c>
-      <c r="H25" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (120,60.2840709525924);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="1"/>
-        <v>2.0833333333333335</v>
-      </c>
-      <c r="D26">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
-        <v>1.1310245685958191</v>
-      </c>
-      <c r="F26" s="1">
-        <f t="shared" si="3"/>
-        <v>56.551228429790953</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="5"/>
-        <v>56.551228429790953</v>
-      </c>
-      <c r="H26" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (125,56.551228429791);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <f t="shared" si="0"/>
-        <v>130</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="1"/>
-        <v>2.1666666666666665</v>
-      </c>
-      <c r="D27">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="2"/>
-        <v>1.0556161001658069</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="3"/>
-        <v>52.780805008290343</v>
-      </c>
-      <c r="G27">
-        <f t="shared" si="5"/>
-        <v>52.780805008290343</v>
-      </c>
-      <c r="H27" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (130,52.7808050082903);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <f t="shared" si="0"/>
-        <v>135</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="1"/>
-        <v>2.25</v>
-      </c>
-      <c r="D28">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="2"/>
-        <v>0.97988859187193167</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="3"/>
-        <v>48.994429593596585</v>
-      </c>
-      <c r="G28">
-        <f t="shared" si="5"/>
-        <v>48.994429593596585</v>
-      </c>
-      <c r="H28" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (135,48.9944295935966);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="1"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="D29">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="2"/>
-        <v>0.90427645198562434</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="3"/>
-        <v>45.213822599281215</v>
-      </c>
-      <c r="G29">
-        <f t="shared" si="5"/>
-        <v>45.213822599281215</v>
-      </c>
-      <c r="H29" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (140,45.2138225992812);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <f t="shared" si="0"/>
-        <v>145</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="1"/>
-        <v>2.4166666666666665</v>
-      </c>
-      <c r="D30">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="2"/>
-        <v>0.82921342697137623</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="3"/>
-        <v>41.460671348568809</v>
-      </c>
-      <c r="G30">
-        <f t="shared" si="5"/>
-        <v>41.460671348568809</v>
-      </c>
-      <c r="H30" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (145,41.4606713485688);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="D31">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="2"/>
-        <v>0.75513011331492108</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" si="3"/>
-        <v>37.756505665746054</v>
-      </c>
-      <c r="G31">
-        <f t="shared" si="5"/>
-        <v>37.756505665746054</v>
-      </c>
-      <c r="H31" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (150,37.7565056657461);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <f t="shared" si="0"/>
-        <v>155</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="1"/>
-        <v>2.5833333333333335</v>
-      </c>
-      <c r="D32">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="2"/>
-        <v>0.68245148742116735</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="3"/>
-        <v>34.12257437105837</v>
-      </c>
-      <c r="G32">
-        <f t="shared" si="5"/>
-        <v>34.12257437105837</v>
-      </c>
-      <c r="H32" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (155,34.1225743710584);</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="1"/>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="D33">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="2"/>
-        <v>0.61159446775152659</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="3"/>
-        <v>30.57972338757633</v>
-      </c>
-      <c r="G33">
-        <f t="shared" si="5"/>
-        <v>30.57972338757633</v>
-      </c>
-      <c r="H33" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (160,30.5797233875763);</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <f t="shared" si="0"/>
-        <v>165</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="1"/>
-        <v>2.75</v>
-      </c>
-      <c r="D34">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="2"/>
-        <v>0.54296552318536517</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="3"/>
-        <v>27.14827615926826</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="5"/>
-        <v>27.14827615926826</v>
-      </c>
-      <c r="H34" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (165,27.1482761592683);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <f t="shared" si="0"/>
-        <v>170</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" si="1"/>
-        <v>2.8333333333333335</v>
-      </c>
-      <c r="D35">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="2"/>
-        <v>0.47695834132512482</v>
-      </c>
-      <c r="F35" s="1">
-        <f t="shared" si="3"/>
-        <v>23.84791706625624</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="5"/>
-        <v>23.84791706625624</v>
-      </c>
-      <c r="H35" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (170,23.8479170662562);</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <f t="shared" si="0"/>
-        <v>175</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" si="1"/>
-        <v>2.9166666666666665</v>
-      </c>
-      <c r="D36">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="2"/>
-        <v>0.41395157012080319</v>
-      </c>
-      <c r="F36" s="1">
-        <f t="shared" si="3"/>
-        <v>20.697578506040159</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="5"/>
-        <v>20.697578506040159</v>
-      </c>
-      <c r="H36" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (175,20.6975785060402);</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <f t="shared" si="0"/>
-        <v>180</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D37">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="2"/>
-        <v>0.35430664576888848</v>
-      </c>
-      <c r="F37" s="1">
-        <f t="shared" si="3"/>
-        <v>17.715332288444426</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="5"/>
-        <v>17.715332288444426</v>
-      </c>
-      <c r="H37" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (180,17.7153322884444);</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <f t="shared" si="0"/>
-        <v>185</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0833333333333335</v>
-      </c>
-      <c r="D38">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="2"/>
-        <v>0.29836571934593215</v>
-      </c>
-      <c r="F38" s="1">
-        <f t="shared" si="3"/>
-        <v>14.918285967296608</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="5"/>
-        <v>14.918285967296608</v>
-      </c>
-      <c r="H38" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (185,14.9182859672966);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <f t="shared" si="0"/>
-        <v>190</v>
-      </c>
-      <c r="C39" s="1">
-        <f t="shared" si="1"/>
-        <v>3.1666666666666665</v>
-      </c>
-      <c r="D39">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="2"/>
-        <v>0.24644969407055572</v>
-      </c>
-      <c r="F39" s="1">
-        <f t="shared" si="3"/>
-        <v>12.322484703527786</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="5"/>
-        <v>12.322484703527786</v>
-      </c>
-      <c r="H39" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (190,12.3224847035278);</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <f t="shared" si="0"/>
-        <v>195</v>
-      </c>
-      <c r="C40" s="1">
-        <f t="shared" si="1"/>
-        <v>3.25</v>
-      </c>
-      <c r="D40">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="2"/>
-        <v>0.1988563844530663</v>
-      </c>
-      <c r="F40" s="1">
-        <f t="shared" si="3"/>
-        <v>9.9428192226533145</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="5"/>
-        <v>9.9428192226533145</v>
-      </c>
-      <c r="H40" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (195,9.94281922265331);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333335</v>
-      </c>
-      <c r="D41">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="2"/>
-        <v>0.15585880789266882</v>
-      </c>
-      <c r="F41" s="1">
-        <f t="shared" si="3"/>
-        <v>7.7929403946334403</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="5"/>
-        <v>7.7929403946334403</v>
-      </c>
-      <c r="H41" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (200,7.79294039463344);</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <f t="shared" si="0"/>
-        <v>205</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" si="1"/>
-        <v>3.4166666666666665</v>
-      </c>
-      <c r="D42">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="2"/>
-        <v>0.11770361852245315</v>
-      </c>
-      <c r="F42" s="1">
-        <f t="shared" si="3"/>
-        <v>5.8851809261226578</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="5"/>
-        <v>5.8851809261226578</v>
-      </c>
-      <c r="H42" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (205,5.88518092612266);</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <f t="shared" si="0"/>
-        <v>210</v>
-      </c>
-      <c r="C43" s="1">
-        <f t="shared" si="1"/>
-        <v>3.5</v>
-      </c>
-      <c r="D43">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="2"/>
-        <v>8.4609692286364169E-2</v>
-      </c>
-      <c r="F43" s="1">
-        <f t="shared" si="3"/>
-        <v>4.2304846143182084</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="5"/>
-        <v>4.2304846143182084</v>
-      </c>
-      <c r="H43" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (210,4.23048461431821);</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <f t="shared" si="0"/>
-        <v>215</v>
-      </c>
-      <c r="C44" s="1">
-        <f t="shared" si="1"/>
-        <v>3.5833333333333335</v>
-      </c>
-      <c r="D44">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E44">
-        <f t="shared" si="2"/>
-        <v>5.676687136480596E-2</v>
-      </c>
-      <c r="F44" s="1">
-        <f t="shared" si="3"/>
-        <v>2.838343568240298</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="5"/>
-        <v>2.838343568240298</v>
-      </c>
-      <c r="H44" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (215,2.8383435682403);</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <f t="shared" si="0"/>
-        <v>220</v>
-      </c>
-      <c r="C45" s="1">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="D45">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="2"/>
-        <v>3.433487515144118E-2</v>
-      </c>
-      <c r="F45" s="1">
-        <f t="shared" si="3"/>
-        <v>1.716743757572059</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="5"/>
-        <v>1.716743757572059</v>
-      </c>
-      <c r="H45" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (220,1.71674375757206);</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <f t="shared" si="0"/>
-        <v>225</v>
-      </c>
-      <c r="C46" s="1">
-        <f t="shared" si="1"/>
-        <v>3.75</v>
-      </c>
-      <c r="D46">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E46">
-        <f t="shared" si="2"/>
-        <v>1.7442384028330649E-2</v>
-      </c>
-      <c r="F46" s="1">
-        <f t="shared" si="3"/>
-        <v>0.87211920141653243</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="5"/>
-        <v>0.87211920141653243</v>
-      </c>
-      <c r="H46" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (225,0.872119201416532);</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <f t="shared" si="0"/>
-        <v>230</v>
-      </c>
-      <c r="C47" s="1">
-        <f t="shared" si="1"/>
-        <v>3.8333333333333335</v>
-      </c>
-      <c r="D47">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E47">
-        <f t="shared" si="2"/>
-        <v>6.1863011953060543E-3</v>
-      </c>
-      <c r="F47" s="1">
-        <f t="shared" si="3"/>
-        <v>0.30931505976530271</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="5"/>
-        <v>0.30931505976530271</v>
-      </c>
-      <c r="H47" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (230,0.309315059765303);</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <f t="shared" si="0"/>
-        <v>235</v>
-      </c>
-      <c r="C48" s="1">
-        <f t="shared" si="1"/>
-        <v>3.9166666666666665</v>
-      </c>
-      <c r="D48">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="2"/>
-        <v>6.311967880651137E-4</v>
-      </c>
-      <c r="F48" s="1">
-        <f t="shared" si="3"/>
-        <v>3.1559839403255685E-2</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="5"/>
-        <v>3.1559839403255685E-2</v>
-      </c>
-      <c r="H48" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (235,0.0315598394032557);</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <f t="shared" si="0"/>
-        <v>240</v>
-      </c>
-      <c r="C49" s="1">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D49">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E49">
+      <c r="F49">
         <f t="shared" si="2"/>
         <v>8.0893747378740777E-4</v>
       </c>
-      <c r="F49" s="1">
+      <c r="G49" s="1">
         <f t="shared" si="3"/>
         <v>4.0446873689370388E-2</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>0</v>
       </c>
-      <c r="H49" t="str">
-        <f t="shared" si="4"/>
-        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct) values (240,0);</v>
+      <c r="I49" t="str">
+        <f t="shared" si="4"/>
+        <v>insert into iob_dist (iob_dist.interval, iob_dist_pct, injection_type) values (240,0,'square');</v>
       </c>
     </row>
   </sheetData>
@@ -5565,7 +8611,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
